--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -390,6 +390,31 @@
         <v>56</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>981723646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
